--- a/medicine/Pharmacie/Inhalateur/Inhalateur.xlsx
+++ b/medicine/Pharmacie/Inhalateur/Inhalateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine médical et pharmaceutique, un inhalateur désigne un appareil permettant l'absorption de substances médicamenteuses par les voies respiratoires.
 Le médicament peut être délivré sous forme de gaz, de micro-gouttelettes ou de poudre.
@@ -513,10 +525,12 @@
           <t>Usagers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des enfants et des adultes. 
-Ils sont très nombreux, surtout dans les pays industrialisés. À titre d'exemple 25 millions de personnes souffrent d'asthme rien qu'aux États-Unis, et 15 millions de patients sont touchés par une maladie pulmonaire de type MPOC (dont les symptômes s'aggravent généralement avec le temps, incluant souvent ceux d'une bronchite chronique, un emphysème ou les deux[1]).
+Ils sont très nombreux, surtout dans les pays industrialisés. À titre d'exemple 25 millions de personnes souffrent d'asthme rien qu'aux États-Unis, et 15 millions de patients sont touchés par une maladie pulmonaire de type MPOC (dont les symptômes s'aggravent généralement avec le temps, incluant souvent ceux d'une bronchite chronique, un emphysème ou les deux).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La poudre médicamenteuse était autrefois propulsée par un gaz de type CFC (chlorofluorocarbone). Ces gaz présentaient l'avantage d'être relativement peu coûteux, d'être très stables et non inflammables. On a constaté qu'ils avaient cependant l'inconvénient de faire partie des gaz les plus destructeurs de la couche d'ozone. 
 Le protocole de Montréal signé  le 16 septembre 1987 a imposé le remplacement de ces aérosols (alors massivement présents dans les bombes de laques, peintures, déodorants et climatisation...) par des gaz plus respectueux de l'environnement. Les fabricants de médicaments inhalés ont été invités à utiliser des gaz alternatifs, puis la FDA a programmé leur interdiction dans les inhalateurs et bombes aérosols. 
